--- a/src/test/java/TestData/LoginData.xlsx
+++ b/src/test/java/TestData/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E35C7-1741-4C00-BEB5-9D9E214299CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65723D38-22A3-47B1-BF83-E5F88AE7BB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>Username</t>
+    <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
@@ -39,10 +39,10 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>Admin232</t>
-  </si>
-  <si>
-    <t>Admin123</t>
+    <t>Admin222</t>
+  </si>
+  <si>
+    <t>111111</t>
   </si>
 </sst>
 </file>
@@ -78,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,11 +394,11 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
